--- a/src/test/resources/excel/rozetkaTesting.xlsx
+++ b/src/test/resources/excel/rozetkaTesting.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>date</t>
   </si>
@@ -65,13 +65,101 @@
     <t>Go to website -&gt; https://rozetka.com.ua</t>
   </si>
   <si>
-    <t>Clic on reference -&gt; RU(or UA)</t>
-  </si>
-  <si>
     <t>The language changed</t>
   </si>
   <si>
     <t>Check language changed</t>
+  </si>
+  <si>
+    <t>Clic on reference -&gt; UA</t>
+  </si>
+  <si>
+    <t>Clic on reference -&gt; RU</t>
+  </si>
+  <si>
+    <t>check contacts phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on telehpone number </t>
+  </si>
+  <si>
+    <t>Contact phones were shown</t>
+  </si>
+  <si>
+    <t>search product</t>
+  </si>
+  <si>
+    <t>Check that modal window is opened. Contact phones were shown</t>
+  </si>
+  <si>
+    <t>In search box enter product name: Asus. Click</t>
+  </si>
+  <si>
+    <t>Check that all goods correspond to search name: Asus</t>
+  </si>
+  <si>
+    <t>Go to home page</t>
+  </si>
+  <si>
+    <t>All goods have partial name of product: asus  in title</t>
+  </si>
+  <si>
+    <t>add product to shopping cart</t>
+  </si>
+  <si>
+    <t>Click on product reference -&gt; https://rozetka.com.ua/razer_rz04_02890300_r3m1/p203600995/</t>
+  </si>
+  <si>
+    <t>Click on buy button</t>
+  </si>
+  <si>
+    <t>Modal window(shopping cart) is open. Click on Order button</t>
+  </si>
+  <si>
+    <t>check that order page is open</t>
+  </si>
+  <si>
+    <t>check shops address</t>
+  </si>
+  <si>
+    <t>Click on -&gt; Контакти</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare address from modal window and from list </t>
+  </si>
+  <si>
+    <t>Click on address from List. Modal address window is open(on map).</t>
+  </si>
+  <si>
+    <t>Repeat (3-4 points). Check all address</t>
+  </si>
+  <si>
+    <t>The addresses from modal window(on map) are the same as in the address list</t>
+  </si>
+  <si>
+    <t>product added to shopping cart</t>
+  </si>
+  <si>
+    <t>select product characteristics</t>
+  </si>
+  <si>
+    <t>Move your mouse on -&gt; Побутова техніка
+-&gt; Пилососи. Click. Get page with vacuum cleaners</t>
+  </si>
+  <si>
+    <t>Select brand -&gt; Bosch. Get page sorted by brand</t>
+  </si>
+  <si>
+    <t>Check all products title</t>
+  </si>
+  <si>
+    <t>Select max price: 5000. Get page sorted by max price</t>
+  </si>
+  <si>
+    <t>Check correct filtration ny price</t>
+  </si>
+  <si>
+    <t>Products successfully sorted by brand, price</t>
   </si>
 </sst>
 </file>
@@ -114,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -280,36 +368,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -322,44 +397,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,434 +788,915 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="10.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2">
+      <c r="E1" s="9"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10">
         <v>44166</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="8" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="24" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>2</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>3</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>4</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>5</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+    </row>
+    <row r="19" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="B19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="A23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
+      <c r="A24" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>1</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>2</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>3</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>1</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>2</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>3</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="28">
+        <v>4</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="37"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="19"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>1</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>2</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>3</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="28">
+        <v>4</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="29">
+        <v>5</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="34"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="35"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="19"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>1</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>2</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>3</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="28">
+        <v>4</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="29">
+        <v>5</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="40">
+        <v>6</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="34"/>
+    </row>
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="35"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="F7:F9"/>
+  <mergeCells count="68">
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="F51:F56"/>
+    <mergeCell ref="G51:H56"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:F45"/>
+    <mergeCell ref="G41:H45"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:H36"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:H27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:H19"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="G7:H11"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="G6:H6"/>
@@ -1077,5 +1705,6 @@
     <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>